--- a/BloodstreamAPI/testData/worklistInfo.xlsx
+++ b/BloodstreamAPI/testData/worklistInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F2B2BC62-9E39-44D3-9E68-00EA7E743B95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A96ED3CF-87F4-4D35-B7A4-2844E414D87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worklistCalibratorsControls" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Assert200</t>
   </si>
   <si>
-    <t>Assert400</t>
-  </si>
-  <si>
     <t>Assert401</t>
   </si>
   <si>
@@ -50,10 +47,13 @@
     <t>/worklistInfo/worklistCalibratorsControls</t>
   </si>
   <si>
-    <t>dev_worklist1</t>
-  </si>
-  <si>
-    <t>dev_worklist1000</t>
+    <t>last1</t>
+  </si>
+  <si>
+    <t>Assert404</t>
+  </si>
+  <si>
+    <t>last1000001</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -488,7 +488,7 @@
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -511,7 +511,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">

--- a/BloodstreamAPI/testData/worklistInfo.xlsx
+++ b/BloodstreamAPI/testData/worklistInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A96ED3CF-87F4-4D35-B7A4-2844E414D87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC70C321-A798-40F1-ADC6-7D7686F8BCED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worklistCalibratorsControls" sheetId="2" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,94 +478,108 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BloodstreamAPI/testData/worklistInfo.xlsx
+++ b/BloodstreamAPI/testData/worklistInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC70C321-A798-40F1-ADC6-7D7686F8BCED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECECAFA1-28FC-474C-A394-51C1ACE09B3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worklistCalibratorsControls" sheetId="2" r:id="rId1"/>
@@ -21,16 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
-  <si>
-    <t>PageSize</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Sort</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>EndPoint</t>
   </si>
@@ -47,20 +38,20 @@
     <t>/worklistInfo/worklistCalibratorsControls</t>
   </si>
   <si>
+    <t>Assert404</t>
+  </si>
+  <si>
     <t>last1</t>
   </si>
   <si>
-    <t>Assert404</t>
-  </si>
-  <si>
-    <t>last1000001</t>
+    <t>a1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,12 +65,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -130,7 +115,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -417,169 +404,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BloodstreamAPI/testData/worklistInfo.xlsx
+++ b/BloodstreamAPI/testData/worklistInfo.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECECAFA1-28FC-474C-A394-51C1ACE09B3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEC37C9-6A4B-4F15-B1CF-25D61E2BCEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worklistCalibratorsControls" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>EndPoint</t>
   </si>
@@ -45,6 +44,9 @@
   </si>
   <si>
     <t>a1</t>
+  </si>
+  <si>
+    <t>IDT4_Worklist</t>
   </si>
 </sst>
 </file>
@@ -101,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -115,12 +117,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -404,116 +412,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
